--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komax-my.sharepoint.com/personal/melanie_oltieki_komaxgroup_com/Documents/Desktop/Ausbildung/BLJ/Game-Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011947\OneDrive - Komax Group\Desktop\Ausbildung\BLJ\Game-Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="14_{AADE7CC7-3B4D-4069-BD51-3580D081E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF46B625-A9DD-4010-A2E0-042592D396F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0239D1-C84C-487D-8FB9-C97168E58E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1785,7 +1785,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2292,8 +2292,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3749,7 +3749,9 @@
         <v>8</v>
       </c>
       <c r="X20" s="54"/>
-      <c r="Y20" s="55"/>
+      <c r="Y20" s="105">
+        <v>4</v>
+      </c>
       <c r="Z20" s="56"/>
       <c r="AA20" s="57"/>
       <c r="AB20" s="97"/>
@@ -3826,7 +3828,9 @@
       <c r="X21" s="104">
         <v>8</v>
       </c>
-      <c r="Y21" s="105"/>
+      <c r="Y21" s="105">
+        <v>0</v>
+      </c>
       <c r="Z21" s="56"/>
       <c r="AA21" s="57"/>
       <c r="AB21" s="97"/>
@@ -5552,7 +5556,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5630,7 +5634,7 @@
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -5884,7 +5888,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch1011947\OneDrive - Komax Group\Desktop\Ausbildung\BLJ\Game-Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komax-my.sharepoint.com/personal/melanie_oltieki_komaxgroup_com/Documents/Desktop/Ausbildung/BLJ/Game-Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0239D1-C84C-487D-8FB9-C97168E58E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{9A0239D1-C84C-487D-8FB9-C97168E58E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B522E8C1-CA86-4C37-BA2B-64F506D009FE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Nr.</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>Corona Invaders</t>
+  </si>
+  <si>
+    <t>krank/abwesend</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +573,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="48">
     <border>
@@ -1200,7 +1223,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1523,34 +1546,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1570,10 +1565,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1604,6 +1595,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1720,7 +1726,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,13 +1785,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1794,7 +1800,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2557,9 +2563,10 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
@@ -2612,88 +2619,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="109" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="109" t="s">
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="111" t="s">
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="109" t="s">
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="110"/>
-      <c r="AP7" s="111" t="s">
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="110"/>
-      <c r="AW7" s="109" t="s">
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="101"/>
+      <c r="AS7" s="101"/>
+      <c r="AT7" s="101"/>
+      <c r="AU7" s="101"/>
+      <c r="AV7" s="102"/>
+      <c r="AW7" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="109"/>
-      <c r="BB7" s="109"/>
-      <c r="BC7" s="110"/>
-      <c r="BD7" s="111" t="s">
+      <c r="AX7" s="101"/>
+      <c r="AY7" s="101"/>
+      <c r="AZ7" s="101"/>
+      <c r="BA7" s="101"/>
+      <c r="BB7" s="101"/>
+      <c r="BC7" s="102"/>
+      <c r="BD7" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="BE7" s="109"/>
-      <c r="BF7" s="109"/>
-      <c r="BG7" s="109"/>
-      <c r="BH7" s="109"/>
-      <c r="BI7" s="109"/>
-      <c r="BJ7" s="112"/>
+      <c r="BE7" s="101"/>
+      <c r="BF7" s="101"/>
+      <c r="BG7" s="101"/>
+      <c r="BH7" s="101"/>
+      <c r="BI7" s="101"/>
+      <c r="BJ7" s="104"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -2894,7 +2901,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -2988,7 +2995,7 @@
         <v>49</v>
       </c>
       <c r="Q10" s="54"/>
-      <c r="R10" s="102"/>
+      <c r="R10" s="95"/>
       <c r="S10" s="56"/>
       <c r="T10" s="57"/>
       <c r="U10" s="52"/>
@@ -2998,9 +3005,9 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="57"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="54"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
       <c r="AE10" s="91" t="s">
         <v>48</v>
       </c>
@@ -3016,7 +3023,7 @@
       <c r="AM10" s="88"/>
       <c r="AN10" s="56"/>
       <c r="AO10" s="57"/>
-      <c r="AP10" s="90"/>
+      <c r="AP10" s="111"/>
       <c r="AQ10" s="59"/>
       <c r="AR10" s="93" t="s">
         <v>50</v>
@@ -3064,7 +3071,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="103">
+      <c r="K11" s="96">
         <v>0.5</v>
       </c>
       <c r="L11" s="61"/>
@@ -3074,8 +3081,10 @@
       <c r="N11" s="58"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="102"/>
+      <c r="Q11" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="95"/>
       <c r="S11" s="56"/>
       <c r="T11" s="57" t="s">
         <v>5</v>
@@ -3087,9 +3096,9 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="56"/>
       <c r="AA11" s="57"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
       <c r="AE11" s="59"/>
       <c r="AF11" s="88"/>
       <c r="AG11" s="56"/>
@@ -3101,7 +3110,7 @@
       <c r="AM11" s="88"/>
       <c r="AN11" s="56"/>
       <c r="AO11" s="57"/>
-      <c r="AP11" s="58"/>
+      <c r="AP11" s="111"/>
       <c r="AQ11" s="59"/>
       <c r="AR11" s="59"/>
       <c r="AS11" s="59"/>
@@ -3112,7 +3121,9 @@
       <c r="AX11" s="59"/>
       <c r="AY11" s="59"/>
       <c r="AZ11" s="59"/>
-      <c r="BA11" s="55"/>
+      <c r="BA11" s="98" t="s">
+        <v>63</v>
+      </c>
       <c r="BB11" s="56"/>
       <c r="BC11" s="57"/>
       <c r="BD11" s="58"/>
@@ -3152,7 +3163,7 @@
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
-      <c r="R12" s="102"/>
+      <c r="R12" s="95"/>
       <c r="S12" s="56"/>
       <c r="T12" s="57"/>
       <c r="U12" s="58"/>
@@ -3162,9 +3173,9 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="56"/>
       <c r="AA12" s="57"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
       <c r="AE12" s="59"/>
       <c r="AF12" s="88"/>
       <c r="AG12" s="56"/>
@@ -3176,7 +3187,7 @@
       <c r="AM12" s="88"/>
       <c r="AN12" s="56"/>
       <c r="AO12" s="57"/>
-      <c r="AP12" s="58"/>
+      <c r="AP12" s="111"/>
       <c r="AQ12" s="59"/>
       <c r="AR12" s="59"/>
       <c r="AS12" s="59"/>
@@ -3187,7 +3198,9 @@
       <c r="AX12" s="59"/>
       <c r="AY12" s="59"/>
       <c r="AZ12" s="59"/>
-      <c r="BA12" s="55"/>
+      <c r="BA12" s="98" t="s">
+        <v>63</v>
+      </c>
       <c r="BB12" s="56"/>
       <c r="BC12" s="57"/>
       <c r="BD12" s="58"/>
@@ -3210,7 +3223,7 @@
       </c>
       <c r="D13" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="49">
         <v>1</v>
@@ -3229,7 +3242,7 @@
       <c r="O13" s="59"/>
       <c r="P13" s="87"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="102"/>
+      <c r="R13" s="95"/>
       <c r="S13" s="64"/>
       <c r="T13" s="65"/>
       <c r="U13" s="58"/>
@@ -3239,9 +3252,9 @@
       <c r="Y13" s="54"/>
       <c r="Z13" s="64"/>
       <c r="AA13" s="65"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="54"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
       <c r="AE13" s="87"/>
       <c r="AF13" s="87"/>
       <c r="AG13" s="64"/>
@@ -3253,7 +3266,7 @@
       <c r="AM13" s="87"/>
       <c r="AN13" s="64"/>
       <c r="AO13" s="65"/>
-      <c r="AP13" s="58"/>
+      <c r="AP13" s="111"/>
       <c r="AQ13" s="59"/>
       <c r="AR13" s="87"/>
       <c r="AS13" s="89"/>
@@ -3264,7 +3277,9 @@
       <c r="AX13" s="59"/>
       <c r="AY13" s="87"/>
       <c r="AZ13" s="87"/>
-      <c r="BA13" s="54"/>
+      <c r="BA13" s="97">
+        <v>1</v>
+      </c>
       <c r="BB13" s="64"/>
       <c r="BC13" s="65"/>
       <c r="BD13" s="58"/>
@@ -3303,7 +3318,7 @@
       <c r="O14" s="71"/>
       <c r="P14" s="71"/>
       <c r="Q14" s="71"/>
-      <c r="R14" s="102"/>
+      <c r="R14" s="95"/>
       <c r="S14" s="72"/>
       <c r="T14" s="73"/>
       <c r="U14" s="70"/>
@@ -3313,9 +3328,9 @@
       <c r="Y14" s="71"/>
       <c r="Z14" s="72"/>
       <c r="AA14" s="73"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
       <c r="AE14" s="71"/>
       <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
@@ -3327,7 +3342,7 @@
       <c r="AM14" s="72"/>
       <c r="AN14" s="72"/>
       <c r="AO14" s="73"/>
-      <c r="AP14" s="70"/>
+      <c r="AP14" s="111"/>
       <c r="AQ14" s="71"/>
       <c r="AR14" s="71"/>
       <c r="AS14" s="71"/>
@@ -3369,7 +3384,7 @@
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="104">
+      <c r="K15" s="97">
         <v>1</v>
       </c>
       <c r="L15" s="56"/>
@@ -3378,7 +3393,7 @@
       <c r="O15" s="53"/>
       <c r="P15" s="87"/>
       <c r="Q15" s="54"/>
-      <c r="R15" s="102"/>
+      <c r="R15" s="95"/>
       <c r="S15" s="56"/>
       <c r="T15" s="57"/>
       <c r="U15" s="52"/>
@@ -3388,9 +3403,9 @@
       <c r="Y15" s="55"/>
       <c r="Z15" s="56"/>
       <c r="AA15" s="57"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="54"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="109"/>
       <c r="AE15" s="87"/>
       <c r="AF15" s="88"/>
       <c r="AG15" s="56"/>
@@ -3402,7 +3417,7 @@
       <c r="AM15" s="88"/>
       <c r="AN15" s="56"/>
       <c r="AO15" s="57"/>
-      <c r="AP15" s="52"/>
+      <c r="AP15" s="111"/>
       <c r="AQ15" s="53"/>
       <c r="AR15" s="87"/>
       <c r="AS15" s="87"/>
@@ -3447,7 +3462,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="87"/>
       <c r="Q16" s="54"/>
-      <c r="R16" s="102"/>
+      <c r="R16" s="95"/>
       <c r="S16" s="56"/>
       <c r="T16" s="57"/>
       <c r="U16" s="58"/>
@@ -3457,9 +3472,9 @@
       <c r="Y16" s="55"/>
       <c r="Z16" s="56"/>
       <c r="AA16" s="57"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="54"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
       <c r="AE16" s="87"/>
       <c r="AF16" s="88"/>
       <c r="AG16" s="56"/>
@@ -3471,7 +3486,7 @@
       <c r="AM16" s="88"/>
       <c r="AN16" s="56"/>
       <c r="AO16" s="57"/>
-      <c r="AP16" s="58"/>
+      <c r="AP16" s="111"/>
       <c r="AQ16" s="59"/>
       <c r="AR16" s="87"/>
       <c r="AS16" s="87"/>
@@ -3516,7 +3531,7 @@
       <c r="O17" s="67"/>
       <c r="P17" s="87"/>
       <c r="Q17" s="54"/>
-      <c r="R17" s="102"/>
+      <c r="R17" s="95"/>
       <c r="S17" s="56"/>
       <c r="T17" s="57"/>
       <c r="U17" s="66"/>
@@ -3526,9 +3541,9 @@
       <c r="Y17" s="55"/>
       <c r="Z17" s="56"/>
       <c r="AA17" s="57"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="54"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
       <c r="AE17" s="87"/>
       <c r="AF17" s="88"/>
       <c r="AG17" s="56"/>
@@ -3540,7 +3555,7 @@
       <c r="AM17" s="88"/>
       <c r="AN17" s="56"/>
       <c r="AO17" s="57"/>
-      <c r="AP17" s="66"/>
+      <c r="AP17" s="111"/>
       <c r="AQ17" s="67"/>
       <c r="AR17" s="87"/>
       <c r="AS17" s="87"/>
@@ -3575,7 +3590,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3590,7 +3605,7 @@
       <c r="O18" s="71"/>
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
-      <c r="R18" s="102"/>
+      <c r="R18" s="95"/>
       <c r="S18" s="72"/>
       <c r="T18" s="73"/>
       <c r="U18" s="70"/>
@@ -3600,9 +3615,9 @@
       <c r="Y18" s="71"/>
       <c r="Z18" s="72"/>
       <c r="AA18" s="73"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
       <c r="AE18" s="71"/>
       <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
@@ -3614,7 +3629,7 @@
       <c r="AM18" s="72"/>
       <c r="AN18" s="72"/>
       <c r="AO18" s="73"/>
-      <c r="AP18" s="70"/>
+      <c r="AP18" s="111"/>
       <c r="AQ18" s="71"/>
       <c r="AR18" s="71"/>
       <c r="AS18" s="71"/>
@@ -3663,7 +3678,7 @@
       <c r="O19" s="53"/>
       <c r="P19" s="87"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="102"/>
+      <c r="R19" s="95"/>
       <c r="S19" s="56"/>
       <c r="T19" s="57"/>
       <c r="U19" s="52"/>
@@ -3673,9 +3688,9 @@
       <c r="Y19" s="55"/>
       <c r="Z19" s="56"/>
       <c r="AA19" s="57"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="54"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
       <c r="AE19" s="87"/>
       <c r="AF19" s="88"/>
       <c r="AG19" s="56"/>
@@ -3687,7 +3702,7 @@
       <c r="AM19" s="88"/>
       <c r="AN19" s="56"/>
       <c r="AO19" s="57"/>
-      <c r="AP19" s="52"/>
+      <c r="AP19" s="111"/>
       <c r="AQ19" s="53"/>
       <c r="AR19" s="87"/>
       <c r="AS19" s="87"/>
@@ -3729,7 +3744,7 @@
       <c r="H20" s="59"/>
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="105">
+      <c r="K20" s="98">
         <v>1</v>
       </c>
       <c r="L20" s="56"/>
@@ -3737,26 +3752,26 @@
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="87"/>
-      <c r="Q20" s="104">
+      <c r="Q20" s="97">
         <v>7</v>
       </c>
-      <c r="R20" s="102"/>
+      <c r="R20" s="95"/>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
       <c r="V20" s="59"/>
-      <c r="W20" s="104">
+      <c r="W20" s="97">
         <v>8</v>
       </c>
       <c r="X20" s="54"/>
-      <c r="Y20" s="105">
+      <c r="Y20" s="98">
         <v>4</v>
       </c>
       <c r="Z20" s="56"/>
       <c r="AA20" s="57"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="54"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
       <c r="AE20" s="87"/>
       <c r="AF20" s="88"/>
       <c r="AG20" s="56"/>
@@ -3768,7 +3783,7 @@
       <c r="AM20" s="88"/>
       <c r="AN20" s="56"/>
       <c r="AO20" s="57"/>
-      <c r="AP20" s="58"/>
+      <c r="AP20" s="111"/>
       <c r="AQ20" s="59"/>
       <c r="AR20" s="87"/>
       <c r="AS20" s="87"/>
@@ -3802,7 +3817,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" s="49">
         <v>1</v>
@@ -3819,23 +3834,23 @@
       <c r="O21" s="59"/>
       <c r="P21" s="87"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="102"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
       <c r="V21" s="59"/>
       <c r="W21" s="54"/>
-      <c r="X21" s="104">
+      <c r="X21" s="97">
         <v>8</v>
       </c>
-      <c r="Y21" s="105">
+      <c r="Y21" s="98">
         <v>0</v>
       </c>
       <c r="Z21" s="56"/>
       <c r="AA21" s="57"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="54"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
       <c r="AE21" s="87"/>
       <c r="AF21" s="88"/>
       <c r="AG21" s="56"/>
@@ -3847,7 +3862,7 @@
       <c r="AM21" s="88"/>
       <c r="AN21" s="56"/>
       <c r="AO21" s="57"/>
-      <c r="AP21" s="58"/>
+      <c r="AP21" s="111"/>
       <c r="AQ21" s="59"/>
       <c r="AR21" s="87"/>
       <c r="AS21" s="87"/>
@@ -3858,7 +3873,9 @@
       <c r="AX21" s="59"/>
       <c r="AY21" s="87"/>
       <c r="AZ21" s="87"/>
-      <c r="BA21" s="55"/>
+      <c r="BA21" s="98">
+        <v>2</v>
+      </c>
       <c r="BB21" s="56"/>
       <c r="BC21" s="57"/>
       <c r="BD21" s="58"/>
@@ -3881,7 +3898,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
@@ -3898,7 +3915,7 @@
       <c r="O22" s="59"/>
       <c r="P22" s="87"/>
       <c r="Q22" s="54"/>
-      <c r="R22" s="102"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="56"/>
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
@@ -3908,9 +3925,9 @@
       <c r="Y22" s="55"/>
       <c r="Z22" s="56"/>
       <c r="AA22" s="57"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="54"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
       <c r="AE22" s="87"/>
       <c r="AF22" s="88"/>
       <c r="AG22" s="56"/>
@@ -3922,7 +3939,7 @@
       <c r="AM22" s="88"/>
       <c r="AN22" s="56"/>
       <c r="AO22" s="57"/>
-      <c r="AP22" s="58"/>
+      <c r="AP22" s="111"/>
       <c r="AQ22" s="59"/>
       <c r="AR22" s="87"/>
       <c r="AS22" s="87"/>
@@ -3933,7 +3950,9 @@
       <c r="AX22" s="59"/>
       <c r="AY22" s="87"/>
       <c r="AZ22" s="87"/>
-      <c r="BA22" s="55"/>
+      <c r="BA22" s="98">
+        <v>2</v>
+      </c>
       <c r="BB22" s="56"/>
       <c r="BC22" s="57"/>
       <c r="BD22" s="58"/>
@@ -3973,7 +3992,7 @@
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="60"/>
-      <c r="R23" s="102"/>
+      <c r="R23" s="95"/>
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
@@ -3983,9 +4002,9 @@
       <c r="Y23" s="55"/>
       <c r="Z23" s="56"/>
       <c r="AA23" s="57"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
       <c r="AE23" s="59"/>
       <c r="AF23" s="88"/>
       <c r="AG23" s="56"/>
@@ -3997,7 +4016,7 @@
       <c r="AM23" s="88"/>
       <c r="AN23" s="56"/>
       <c r="AO23" s="57"/>
-      <c r="AP23" s="58"/>
+      <c r="AP23" s="111"/>
       <c r="AQ23" s="59"/>
       <c r="AR23" s="59"/>
       <c r="AS23" s="59"/>
@@ -4049,8 +4068,8 @@
       <c r="N24" s="58"/>
       <c r="O24" s="59"/>
       <c r="P24" s="87"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="102"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="95"/>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
       <c r="U24" s="58"/>
@@ -4060,9 +4079,9 @@
       <c r="Y24" s="55"/>
       <c r="Z24" s="56"/>
       <c r="AA24" s="57"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="54"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
       <c r="AE24" s="87"/>
       <c r="AF24" s="88"/>
       <c r="AG24" s="56"/>
@@ -4074,7 +4093,7 @@
       <c r="AM24" s="88"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="57"/>
-      <c r="AP24" s="58"/>
+      <c r="AP24" s="111"/>
       <c r="AQ24" s="59"/>
       <c r="AR24" s="87"/>
       <c r="AS24" s="87"/>
@@ -4125,7 +4144,7 @@
       <c r="O25" s="59"/>
       <c r="P25" s="87"/>
       <c r="Q25" s="54"/>
-      <c r="R25" s="102"/>
+      <c r="R25" s="95"/>
       <c r="S25" s="56"/>
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
@@ -4135,9 +4154,9 @@
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="54"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
       <c r="AE25" s="87"/>
       <c r="AF25" s="88"/>
       <c r="AG25" s="56"/>
@@ -4149,7 +4168,7 @@
       <c r="AM25" s="88"/>
       <c r="AN25" s="56"/>
       <c r="AO25" s="57"/>
-      <c r="AP25" s="58"/>
+      <c r="AP25" s="111"/>
       <c r="AQ25" s="59"/>
       <c r="AR25" s="87"/>
       <c r="AS25" s="87"/>
@@ -4200,7 +4219,7 @@
       <c r="O26" s="59"/>
       <c r="P26" s="87"/>
       <c r="Q26" s="54"/>
-      <c r="R26" s="102"/>
+      <c r="R26" s="95"/>
       <c r="S26" s="56"/>
       <c r="T26" s="57"/>
       <c r="U26" s="58"/>
@@ -4210,9 +4229,9 @@
       <c r="Y26" s="55"/>
       <c r="Z26" s="56"/>
       <c r="AA26" s="57"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="54"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
       <c r="AE26" s="87"/>
       <c r="AF26" s="88"/>
       <c r="AG26" s="56"/>
@@ -4224,7 +4243,7 @@
       <c r="AM26" s="88"/>
       <c r="AN26" s="56"/>
       <c r="AO26" s="57"/>
-      <c r="AP26" s="58"/>
+      <c r="AP26" s="111"/>
       <c r="AQ26" s="59"/>
       <c r="AR26" s="87"/>
       <c r="AS26" s="87"/>
@@ -4275,7 +4294,7 @@
       <c r="O27" s="59"/>
       <c r="P27" s="87"/>
       <c r="Q27" s="54"/>
-      <c r="R27" s="102"/>
+      <c r="R27" s="95"/>
       <c r="S27" s="56"/>
       <c r="T27" s="57"/>
       <c r="U27" s="58"/>
@@ -4285,9 +4304,9 @@
       <c r="Y27" s="55"/>
       <c r="Z27" s="56"/>
       <c r="AA27" s="57"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="54"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
       <c r="AE27" s="87"/>
       <c r="AF27" s="88"/>
       <c r="AG27" s="56"/>
@@ -4299,7 +4318,7 @@
       <c r="AM27" s="88"/>
       <c r="AN27" s="56"/>
       <c r="AO27" s="57"/>
-      <c r="AP27" s="58"/>
+      <c r="AP27" s="111"/>
       <c r="AQ27" s="59"/>
       <c r="AR27" s="87"/>
       <c r="AS27" s="87"/>
@@ -4350,7 +4369,7 @@
       <c r="O28" s="59"/>
       <c r="P28" s="87"/>
       <c r="Q28" s="54"/>
-      <c r="R28" s="102"/>
+      <c r="R28" s="95"/>
       <c r="S28" s="56"/>
       <c r="T28" s="57"/>
       <c r="U28" s="58"/>
@@ -4360,9 +4379,9 @@
       <c r="Y28" s="55"/>
       <c r="Z28" s="56"/>
       <c r="AA28" s="57"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="54"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
       <c r="AE28" s="87"/>
       <c r="AF28" s="88"/>
       <c r="AG28" s="56"/>
@@ -4374,7 +4393,7 @@
       <c r="AM28" s="88"/>
       <c r="AN28" s="56"/>
       <c r="AO28" s="57"/>
-      <c r="AP28" s="58"/>
+      <c r="AP28" s="111"/>
       <c r="AQ28" s="59"/>
       <c r="AR28" s="87"/>
       <c r="AS28" s="87"/>
@@ -4425,7 +4444,7 @@
       <c r="O29" s="69"/>
       <c r="P29" s="87"/>
       <c r="Q29" s="54"/>
-      <c r="R29" s="102"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="56"/>
       <c r="T29" s="57"/>
       <c r="U29" s="68"/>
@@ -4435,9 +4454,9 @@
       <c r="Y29" s="55"/>
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="54"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
       <c r="AE29" s="87"/>
       <c r="AF29" s="88"/>
       <c r="AG29" s="56"/>
@@ -4449,7 +4468,7 @@
       <c r="AM29" s="88"/>
       <c r="AN29" s="56"/>
       <c r="AO29" s="57"/>
-      <c r="AP29" s="68"/>
+      <c r="AP29" s="111"/>
       <c r="AQ29" s="69"/>
       <c r="AR29" s="87"/>
       <c r="AS29" s="87"/>
@@ -4500,7 +4519,7 @@
       <c r="O30" s="69"/>
       <c r="P30" s="87"/>
       <c r="Q30" s="54"/>
-      <c r="R30" s="102"/>
+      <c r="R30" s="95"/>
       <c r="S30" s="56"/>
       <c r="T30" s="57"/>
       <c r="U30" s="68"/>
@@ -4510,9 +4529,9 @@
       <c r="Y30" s="55"/>
       <c r="Z30" s="56"/>
       <c r="AA30" s="57"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="54"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
       <c r="AE30" s="87"/>
       <c r="AF30" s="88"/>
       <c r="AG30" s="56"/>
@@ -4524,7 +4543,7 @@
       <c r="AM30" s="88"/>
       <c r="AN30" s="56"/>
       <c r="AO30" s="57"/>
-      <c r="AP30" s="68"/>
+      <c r="AP30" s="111"/>
       <c r="AQ30" s="69"/>
       <c r="AR30" s="87"/>
       <c r="AS30" s="87"/>
@@ -4569,7 +4588,7 @@
       <c r="O31" s="69"/>
       <c r="P31" s="87"/>
       <c r="Q31" s="54"/>
-      <c r="R31" s="102"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="56"/>
       <c r="T31" s="57"/>
       <c r="U31" s="68"/>
@@ -4579,9 +4598,9 @@
       <c r="Y31" s="55"/>
       <c r="Z31" s="56"/>
       <c r="AA31" s="57"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="54"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
       <c r="AE31" s="87"/>
       <c r="AF31" s="88"/>
       <c r="AG31" s="56"/>
@@ -4593,7 +4612,7 @@
       <c r="AM31" s="88"/>
       <c r="AN31" s="56"/>
       <c r="AO31" s="57"/>
-      <c r="AP31" s="68"/>
+      <c r="AP31" s="111"/>
       <c r="AQ31" s="69"/>
       <c r="AR31" s="87"/>
       <c r="AS31" s="87"/>
@@ -4638,7 +4657,7 @@
       <c r="O32" s="69"/>
       <c r="P32" s="87"/>
       <c r="Q32" s="54"/>
-      <c r="R32" s="102"/>
+      <c r="R32" s="95"/>
       <c r="S32" s="56"/>
       <c r="T32" s="57"/>
       <c r="U32" s="68"/>
@@ -4648,9 +4667,9 @@
       <c r="Y32" s="55"/>
       <c r="Z32" s="56"/>
       <c r="AA32" s="57"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="54"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
       <c r="AE32" s="87"/>
       <c r="AF32" s="88"/>
       <c r="AG32" s="56"/>
@@ -4662,7 +4681,7 @@
       <c r="AM32" s="88"/>
       <c r="AN32" s="56"/>
       <c r="AO32" s="57"/>
-      <c r="AP32" s="68"/>
+      <c r="AP32" s="111"/>
       <c r="AQ32" s="69"/>
       <c r="AR32" s="87"/>
       <c r="AS32" s="87"/>
@@ -4707,7 +4726,7 @@
       <c r="O33" s="69"/>
       <c r="P33" s="87"/>
       <c r="Q33" s="54"/>
-      <c r="R33" s="102"/>
+      <c r="R33" s="95"/>
       <c r="S33" s="56"/>
       <c r="T33" s="57"/>
       <c r="U33" s="68"/>
@@ -4717,9 +4736,9 @@
       <c r="Y33" s="55"/>
       <c r="Z33" s="56"/>
       <c r="AA33" s="57"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="54"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
       <c r="AE33" s="87"/>
       <c r="AF33" s="88"/>
       <c r="AG33" s="56"/>
@@ -4731,7 +4750,7 @@
       <c r="AM33" s="88"/>
       <c r="AN33" s="56"/>
       <c r="AO33" s="57"/>
-      <c r="AP33" s="68"/>
+      <c r="AP33" s="111"/>
       <c r="AQ33" s="69"/>
       <c r="AR33" s="87"/>
       <c r="AS33" s="87"/>
@@ -4781,7 +4800,7 @@
       <c r="O34" s="71"/>
       <c r="P34" s="71"/>
       <c r="Q34" s="71"/>
-      <c r="R34" s="102"/>
+      <c r="R34" s="95"/>
       <c r="S34" s="72"/>
       <c r="T34" s="73"/>
       <c r="U34" s="70"/>
@@ -4791,9 +4810,9 @@
       <c r="Y34" s="71"/>
       <c r="Z34" s="72"/>
       <c r="AA34" s="73"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="109"/>
       <c r="AE34" s="71"/>
       <c r="AF34" s="72"/>
       <c r="AG34" s="72"/>
@@ -4805,7 +4824,7 @@
       <c r="AM34" s="72"/>
       <c r="AN34" s="72"/>
       <c r="AO34" s="73"/>
-      <c r="AP34" s="70"/>
+      <c r="AP34" s="111"/>
       <c r="AQ34" s="71"/>
       <c r="AR34" s="71"/>
       <c r="AS34" s="71"/>
@@ -4852,7 +4871,7 @@
       <c r="O35" s="53"/>
       <c r="P35" s="87"/>
       <c r="Q35" s="54"/>
-      <c r="R35" s="102"/>
+      <c r="R35" s="95"/>
       <c r="S35" s="56"/>
       <c r="T35" s="57"/>
       <c r="U35" s="52"/>
@@ -4862,9 +4881,9 @@
       <c r="Y35" s="55"/>
       <c r="Z35" s="56"/>
       <c r="AA35" s="57"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="96"/>
-      <c r="AD35" s="54"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
       <c r="AE35" s="87"/>
       <c r="AF35" s="88"/>
       <c r="AG35" s="56"/>
@@ -4876,7 +4895,7 @@
       <c r="AM35" s="88"/>
       <c r="AN35" s="56"/>
       <c r="AO35" s="57"/>
-      <c r="AP35" s="52"/>
+      <c r="AP35" s="111"/>
       <c r="AQ35" s="53"/>
       <c r="AR35" s="87"/>
       <c r="AS35" s="87"/>
@@ -4923,7 +4942,7 @@
       <c r="O36" s="59"/>
       <c r="P36" s="87"/>
       <c r="Q36" s="54"/>
-      <c r="R36" s="102"/>
+      <c r="R36" s="95"/>
       <c r="S36" s="56"/>
       <c r="T36" s="57"/>
       <c r="U36" s="58"/>
@@ -4933,9 +4952,9 @@
       <c r="Y36" s="55"/>
       <c r="Z36" s="56"/>
       <c r="AA36" s="57"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="54"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
       <c r="AE36" s="87"/>
       <c r="AF36" s="88"/>
       <c r="AG36" s="56"/>
@@ -4947,7 +4966,7 @@
       <c r="AM36" s="88"/>
       <c r="AN36" s="56"/>
       <c r="AO36" s="57"/>
-      <c r="AP36" s="58"/>
+      <c r="AP36" s="111"/>
       <c r="AQ36" s="59"/>
       <c r="AR36" s="87"/>
       <c r="AS36" s="87"/>
@@ -4994,7 +5013,7 @@
       <c r="O37" s="59"/>
       <c r="P37" s="87"/>
       <c r="Q37" s="54"/>
-      <c r="R37" s="102"/>
+      <c r="R37" s="95"/>
       <c r="S37" s="56"/>
       <c r="T37" s="57"/>
       <c r="U37" s="58"/>
@@ -5004,9 +5023,9 @@
       <c r="Y37" s="55"/>
       <c r="Z37" s="56"/>
       <c r="AA37" s="57"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="54"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="109"/>
       <c r="AE37" s="87"/>
       <c r="AF37" s="88"/>
       <c r="AG37" s="56"/>
@@ -5018,7 +5037,7 @@
       <c r="AM37" s="88"/>
       <c r="AN37" s="56"/>
       <c r="AO37" s="57"/>
-      <c r="AP37" s="58"/>
+      <c r="AP37" s="111"/>
       <c r="AQ37" s="59"/>
       <c r="AR37" s="87"/>
       <c r="AS37" s="87"/>
@@ -5068,7 +5087,7 @@
       <c r="O38" s="71"/>
       <c r="P38" s="71"/>
       <c r="Q38" s="71"/>
-      <c r="R38" s="102"/>
+      <c r="R38" s="95"/>
       <c r="S38" s="72"/>
       <c r="T38" s="73"/>
       <c r="U38" s="70"/>
@@ -5078,9 +5097,9 @@
       <c r="Y38" s="71"/>
       <c r="Z38" s="72"/>
       <c r="AA38" s="73"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="71"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
       <c r="AE38" s="71"/>
       <c r="AF38" s="72"/>
       <c r="AG38" s="72"/>
@@ -5092,7 +5111,7 @@
       <c r="AM38" s="72"/>
       <c r="AN38" s="72"/>
       <c r="AO38" s="73"/>
-      <c r="AP38" s="70"/>
+      <c r="AP38" s="111"/>
       <c r="AQ38" s="71"/>
       <c r="AR38" s="71"/>
       <c r="AS38" s="71"/>
@@ -5141,7 +5160,7 @@
       <c r="O39" s="53"/>
       <c r="P39" s="87"/>
       <c r="Q39" s="54"/>
-      <c r="R39" s="102"/>
+      <c r="R39" s="95"/>
       <c r="S39" s="56"/>
       <c r="T39" s="57"/>
       <c r="U39" s="52"/>
@@ -5151,9 +5170,9 @@
       <c r="Y39" s="55"/>
       <c r="Z39" s="56"/>
       <c r="AA39" s="57"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="96"/>
-      <c r="AD39" s="54"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
       <c r="AE39" s="87"/>
       <c r="AF39" s="88"/>
       <c r="AG39" s="56"/>
@@ -5165,7 +5184,7 @@
       <c r="AM39" s="88"/>
       <c r="AN39" s="56"/>
       <c r="AO39" s="57"/>
-      <c r="AP39" s="52"/>
+      <c r="AP39" s="111"/>
       <c r="AQ39" s="53"/>
       <c r="AR39" s="87"/>
       <c r="AS39" s="87"/>
@@ -5210,7 +5229,7 @@
       <c r="O40" s="67"/>
       <c r="P40" s="87"/>
       <c r="Q40" s="54"/>
-      <c r="R40" s="102"/>
+      <c r="R40" s="95"/>
       <c r="S40" s="56"/>
       <c r="T40" s="57"/>
       <c r="U40" s="66"/>
@@ -5220,9 +5239,9 @@
       <c r="Y40" s="55"/>
       <c r="Z40" s="56"/>
       <c r="AA40" s="57"/>
-      <c r="AB40" s="98"/>
-      <c r="AC40" s="99"/>
-      <c r="AD40" s="54"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
       <c r="AE40" s="87"/>
       <c r="AF40" s="88"/>
       <c r="AG40" s="56"/>
@@ -5234,7 +5253,7 @@
       <c r="AM40" s="88"/>
       <c r="AN40" s="56"/>
       <c r="AO40" s="57"/>
-      <c r="AP40" s="66"/>
+      <c r="AP40" s="111"/>
       <c r="AQ40" s="67"/>
       <c r="AR40" s="87"/>
       <c r="AS40" s="87"/>
@@ -5265,11 +5284,11 @@
       </c>
       <c r="C41" s="40">
         <f>SUM(C42:C44)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" s="41">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="30"/>
@@ -5284,7 +5303,7 @@
       <c r="O41" s="71"/>
       <c r="P41" s="71"/>
       <c r="Q41" s="71"/>
-      <c r="R41" s="102"/>
+      <c r="R41" s="95"/>
       <c r="S41" s="72"/>
       <c r="T41" s="73"/>
       <c r="U41" s="70"/>
@@ -5294,9 +5313,9 @@
       <c r="Y41" s="71"/>
       <c r="Z41" s="72"/>
       <c r="AA41" s="73"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
       <c r="AE41" s="71"/>
       <c r="AF41" s="72"/>
       <c r="AG41" s="72"/>
@@ -5308,7 +5327,7 @@
       <c r="AM41" s="72"/>
       <c r="AN41" s="72"/>
       <c r="AO41" s="73"/>
-      <c r="AP41" s="70"/>
+      <c r="AP41" s="111"/>
       <c r="AQ41" s="71"/>
       <c r="AR41" s="71"/>
       <c r="AS41" s="71"/>
@@ -5337,9 +5356,7 @@
       <c r="B42" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="48">
-        <v>2</v>
-      </c>
+      <c r="C42" s="48"/>
       <c r="D42" s="80">
         <f t="shared" ref="D42:D44" si="3">SUM(G42:BJ42)</f>
         <v>0</v>
@@ -5357,7 +5374,7 @@
       <c r="O42" s="53"/>
       <c r="P42" s="87"/>
       <c r="Q42" s="54"/>
-      <c r="R42" s="102"/>
+      <c r="R42" s="95"/>
       <c r="S42" s="56"/>
       <c r="T42" s="57"/>
       <c r="U42" s="52"/>
@@ -5367,9 +5384,9 @@
       <c r="Y42" s="55"/>
       <c r="Z42" s="56"/>
       <c r="AA42" s="57"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="107"/>
-      <c r="AD42" s="54"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
       <c r="AE42" s="87"/>
       <c r="AF42" s="88"/>
       <c r="AG42" s="56"/>
@@ -5381,7 +5398,7 @@
       <c r="AM42" s="88"/>
       <c r="AN42" s="56"/>
       <c r="AO42" s="57"/>
-      <c r="AP42" s="52"/>
+      <c r="AP42" s="111"/>
       <c r="AQ42" s="53"/>
       <c r="AR42" s="87"/>
       <c r="AS42" s="87"/>
@@ -5415,7 +5432,7 @@
       </c>
       <c r="D43" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -5430,7 +5447,7 @@
       <c r="O43" s="59"/>
       <c r="P43" s="87"/>
       <c r="Q43" s="54"/>
-      <c r="R43" s="102"/>
+      <c r="R43" s="95"/>
       <c r="S43" s="56"/>
       <c r="T43" s="57"/>
       <c r="U43" s="58"/>
@@ -5440,9 +5457,9 @@
       <c r="Y43" s="55"/>
       <c r="Z43" s="56"/>
       <c r="AA43" s="57"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="103"/>
-      <c r="AD43" s="54"/>
+      <c r="AB43" s="110"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
       <c r="AE43" s="87"/>
       <c r="AF43" s="88"/>
       <c r="AG43" s="56"/>
@@ -5454,7 +5471,7 @@
       <c r="AM43" s="88"/>
       <c r="AN43" s="56"/>
       <c r="AO43" s="57"/>
-      <c r="AP43" s="58"/>
+      <c r="AP43" s="111"/>
       <c r="AQ43" s="59"/>
       <c r="AR43" s="87"/>
       <c r="AS43" s="87"/>
@@ -5465,7 +5482,9 @@
       <c r="AX43" s="59"/>
       <c r="AY43" s="87"/>
       <c r="AZ43" s="87"/>
-      <c r="BA43" s="55"/>
+      <c r="BA43" s="98">
+        <v>2</v>
+      </c>
       <c r="BB43" s="56"/>
       <c r="BC43" s="57"/>
       <c r="BD43" s="58"/>
@@ -5499,7 +5518,7 @@
       <c r="O44" s="67"/>
       <c r="P44" s="87"/>
       <c r="Q44" s="54"/>
-      <c r="R44" s="102"/>
+      <c r="R44" s="95"/>
       <c r="S44" s="56"/>
       <c r="T44" s="57"/>
       <c r="U44" s="66"/>
@@ -5509,9 +5528,9 @@
       <c r="Y44" s="55"/>
       <c r="Z44" s="56"/>
       <c r="AA44" s="57"/>
-      <c r="AB44" s="98"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="54"/>
+      <c r="AB44" s="110"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
       <c r="AE44" s="87"/>
       <c r="AF44" s="88"/>
       <c r="AG44" s="56"/>
@@ -5523,7 +5542,7 @@
       <c r="AM44" s="88"/>
       <c r="AN44" s="56"/>
       <c r="AO44" s="57"/>
-      <c r="AP44" s="66"/>
+      <c r="AP44" s="111"/>
       <c r="AQ44" s="67"/>
       <c r="AR44" s="87"/>
       <c r="AS44" s="87"/>
@@ -5552,11 +5571,11 @@
       </c>
       <c r="C45" s="36">
         <f>C41+C38+C34+C18+C14+C9</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>29.5</v>
+        <v>36.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5746,7 +5765,7 @@
       </c>
       <c r="BA45" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB45" s="38">
         <f t="shared" si="5"/>
@@ -5831,10 +5850,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5843,28 +5862,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="113" t="str">
+      <c r="A3" s="105" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="114"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>5</v>
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="113" t="str">
+      <c r="A4" s="105" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>1</v>
@@ -5877,28 +5896,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="113" t="str">
+      <c r="A5" s="105" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>51</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="113" t="str">
+      <c r="A6" s="105" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -5910,11 +5929,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="113" t="str">
+      <c r="A7" s="105" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="114"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>14</v>
@@ -5926,18 +5945,18 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="113" t="str">
+      <c r="A8" s="105" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="77">
         <f>Zeitplanung!D41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="78"/>
     </row>
